--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/132.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/132.xlsx
@@ -479,13 +479,13 @@
         <v>-28.12706703229807</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.889758080542022</v>
+        <v>-9.338257915637152</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.071496237416553</v>
+        <v>-3.023683147438569</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.698587816688343</v>
+        <v>-6.023470128351897</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-27.04008417151958</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.18272454123132</v>
+        <v>-9.620645795630342</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.014400704723785</v>
+        <v>-3.030294760373641</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.66678661308579</v>
+        <v>-5.984677635031862</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-25.66101537041238</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.00626966688442</v>
+        <v>-10.44474079800279</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.817256808533074</v>
+        <v>-2.86592089819577</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.545643534891298</v>
+        <v>-5.868509631917227</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-24.17338605954651</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.73269609005759</v>
+        <v>-11.18279318609941</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.790692526067212</v>
+        <v>-2.802305398687823</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.790430321123051</v>
+        <v>-6.098043885338368</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-22.6424561612445</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.59147260265777</v>
+        <v>-12.00663943471787</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.588625924008012</v>
+        <v>-2.636033152597902</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.298172826576993</v>
+        <v>-5.630413012437597</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-21.16079612455226</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.27451113421346</v>
+        <v>-12.69165490400266</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.52504970140859</v>
+        <v>-2.585091002240746</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.386009086342133</v>
+        <v>-5.734156420155434</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-19.8038712596993</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.84707681439067</v>
+        <v>-13.23126725792724</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.43357378145345</v>
+        <v>-2.473714781966182</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.870067615955392</v>
+        <v>-5.251482491289519</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-18.64205628296783</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.85473899490696</v>
+        <v>-14.22833776544457</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.254484170881479</v>
+        <v>-2.257940538831695</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.660433662853674</v>
+        <v>-5.089177212960641</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.68408892374642</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.60097407227966</v>
+        <v>-14.98024180994774</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.22293172103292</v>
+        <v>-2.237359438764502</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.287198293441747</v>
+        <v>-4.709893199635837</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.94496031507165</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.30963424049661</v>
+        <v>-15.66558458680358</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.012970460360159</v>
+        <v>-2.038788481564042</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.053003180208951</v>
+        <v>-4.480358946214695</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.39940494143905</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.9592873998059</v>
+        <v>-16.31891668321139</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.141641612688642</v>
+        <v>-2.096028029588069</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.531536758023003</v>
+        <v>-3.950303973364573</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.99157601152249</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.93273939299675</v>
+        <v>-17.300826304038</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.925670985011529</v>
+        <v>-1.898962687214408</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.852596117256772</v>
+        <v>-3.308034872858018</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.69274206258581</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.52206322081137</v>
+        <v>-17.90027048194927</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.671418463825209</v>
+        <v>-1.631408386340894</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.591365398655812</v>
+        <v>-2.996634449767563</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.45787671530549</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.45499453670709</v>
+        <v>-18.80874537613665</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.535821483293452</v>
+        <v>-1.485219732810181</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.99820552610857</v>
+        <v>-2.406669099113703</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.25062690683598</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.3792325635159</v>
+        <v>-19.71519096338355</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.362649593605941</v>
+        <v>-1.321448116563029</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.563855287031466</v>
+        <v>-2.010731676574224</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.06573641860303</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.17583372992072</v>
+        <v>-20.51297043704413</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.193667240827783</v>
+        <v>-1.115754946616671</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.0773060365244</v>
+        <v>-1.501755311299281</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.88601897379189</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.13572209736755</v>
+        <v>-21.47708761830884</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.089491787116169</v>
+        <v>-1.025038380226351</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.698794469067258</v>
+        <v>-1.142005013814332</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.70877787901673</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.98237513753629</v>
+        <v>-22.31736470699366</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.000293927855489</v>
+        <v>-0.9066185010229388</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.356011796065186</v>
+        <v>-0.7728282582833401</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.53938617448249</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.68099350947364</v>
+        <v>-22.98186453772546</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7926500047857135</v>
+        <v>-0.6701060501871574</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.020076397449337</v>
+        <v>-0.4332924763860163</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.36451104153621</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.29061040669293</v>
+        <v>-23.6007507853567</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5266275033446814</v>
+        <v>-0.3838297562499752</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6527194720133452</v>
+        <v>-0.08550854369840503</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.18766294349569</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.96746937130732</v>
+        <v>-24.25742141898915</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.387613431771234</v>
+        <v>-0.1921453503442639</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.4441721800474907</v>
+        <v>0.02440133865788531</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.01090151662342</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.38092429504903</v>
+        <v>-24.70474613018241</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3255690086042942</v>
+        <v>-0.116432563010562</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2521735588735779</v>
+        <v>0.2469050254530198</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.8268865329318</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.83006883633729</v>
+        <v>-25.11769045411329</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3597268267183575</v>
+        <v>-0.1481552127960643</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2143498959638313</v>
+        <v>0.2467741024246026</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.65135520962472</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.08028892824835</v>
+        <v>-25.38037441832968</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.05504275498570847</v>
+        <v>0.155900428400182</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2008255471283282</v>
+        <v>0.2397566281014374</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.49363373605089</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.09404893853501</v>
+        <v>-25.37927466489097</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.09380906370005936</v>
+        <v>0.1408311878293552</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.367019239401199</v>
+        <v>0.07988651810112039</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.35620554625198</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.11849226794051</v>
+        <v>-25.36501714709634</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.28753586884908</v>
+        <v>-0.05686258508070839</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3370378658936463</v>
+        <v>0.09242894422349396</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.25957731624103</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.16024362170278</v>
+        <v>-25.44067756521867</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07808520798714635</v>
+        <v>0.1115175217667306</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6380953697391372</v>
+        <v>-0.1992675630901628</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.20509495376488</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.26445835232292</v>
+        <v>-25.50693770990064</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1340809872412087</v>
+        <v>0.05732848030482637</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6991578701929476</v>
+        <v>-0.2759229962284689</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.18943361557249</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.99717898980908</v>
+        <v>-25.27013722840235</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2324172738854133</v>
+        <v>-0.05262067895998915</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8376613419555676</v>
+        <v>-0.4451410104577784</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.21837741582356</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.57878826789604</v>
+        <v>-24.82420030131031</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2417913627200891</v>
+        <v>-0.05897044583822629</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.359926394614862</v>
+        <v>-0.9491553929557068</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.27922862826718</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.65680530052988</v>
+        <v>-24.87753834308751</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1549632102737618</v>
+        <v>0.007787206351734931</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.530309623797085</v>
+        <v>-1.078769191088795</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.36524499805763</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.23055919691181</v>
+        <v>-24.47631163019997</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2016110852988318</v>
+        <v>-0.04721355788635628</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.033276622067675</v>
+        <v>-1.571118331754745</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.47358136752068</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.59206067962367</v>
+        <v>-23.86266230370543</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2441479772315998</v>
+        <v>-0.1319600341808491</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.06107158100066</v>
+        <v>-1.626459495866722</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.58613129294888</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.2340909353252</v>
+        <v>-23.51595193985084</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4438579647792892</v>
+        <v>-0.3288944535260926</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.205479681344899</v>
+        <v>-1.730294549704451</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.70217172592831</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.4370577229266</v>
+        <v>-22.75265759187537</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5376119454288896</v>
+        <v>-0.4381497207402967</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.374082357340647</v>
+        <v>-1.914215220025019</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.81941989774934</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.64282626333613</v>
+        <v>-21.95993174711169</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4891049634002945</v>
+        <v>-0.3781869737251913</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.539830911316899</v>
+        <v>-2.058060351347063</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.92503244971624</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.27057281663733</v>
+        <v>-21.56953236867426</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5463968806356878</v>
+        <v>-0.4393803972074189</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.813748071371492</v>
+        <v>-2.321294192282807</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-14.02496475846313</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.61221327593829</v>
+        <v>-20.9214241011003</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.490610578227093</v>
+        <v>-0.3478913849494372</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.004385093049865</v>
+        <v>-2.4903812834837</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-14.11758909448565</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.21492734620611</v>
+        <v>-20.55356966815632</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6696347272848553</v>
+        <v>-0.5756581774869456</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.194367499586152</v>
+        <v>-2.704165496586245</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-14.19617520504535</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.5802648736506</v>
+        <v>-19.96637988570491</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4684322172132091</v>
+        <v>-0.3361475893004089</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.108586731367163</v>
+        <v>-2.590759969371213</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-14.27245477857199</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.08593879525555</v>
+        <v>-19.43518588250755</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2210400627159533</v>
+        <v>-0.09527540161833267</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.219976043944568</v>
+        <v>-2.64807807121229</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-14.34395636596934</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.16480364422023</v>
+        <v>-18.53010189475619</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1963741641621414</v>
+        <v>-0.08340068294088714</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.202982234856008</v>
+        <v>-2.595028060097616</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-14.40826071687649</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.83087136793916</v>
+        <v>-18.20835855242077</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1444500910918558</v>
+        <v>-0.03858573031365881</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.436653655975135</v>
+        <v>-2.803653905880521</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-14.4759096929612</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.25830568776196</v>
+        <v>-17.66538147666587</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1722974192362071</v>
+        <v>-0.0621911523372909</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.506527276241427</v>
+        <v>-2.856101671064476</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-14.54214538471841</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.79280886022439</v>
+        <v>-17.23001003796711</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.09657153959966355</v>
+        <v>0.0001674860978503593</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.316571054310823</v>
+        <v>-2.729721671733294</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-14.61087263934021</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.10304088500805</v>
+        <v>-16.55709185650807</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1519388883173231</v>
+        <v>-0.03052087176315554</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.699219789465951</v>
+        <v>-3.080569203285869</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-14.69165207147694</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.44333283711632</v>
+        <v>-15.90019865372731</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1033140755631525</v>
+        <v>-0.007255849613408322</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.55282165908977</v>
+        <v>-2.981447378471161</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-14.77789042004885</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.79511983111962</v>
+        <v>-15.31019402616492</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01360561649164546</v>
+        <v>0.09551872769414131</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.854533778077347</v>
+        <v>-3.233971715682373</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-14.87926784106328</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.07187483753698</v>
+        <v>-14.61084248526844</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05732848030482637</v>
+        <v>0.2019853344030577</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.815008115798176</v>
+        <v>-3.186119348795865</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-15.00164691529577</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.25335715617511</v>
+        <v>-13.79639651009035</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08800374586299055</v>
+        <v>0.2225926190759345</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.991976773309788</v>
+        <v>-3.313075409452082</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-15.13475501203348</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.67353834022359</v>
+        <v>-13.20496482151821</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1560575360342827</v>
+        <v>0.292060377954133</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.892409810198461</v>
+        <v>-3.28067195991881</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-15.28530110788478</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.99802788280189</v>
+        <v>-12.55858473791936</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2296755549133083</v>
+        <v>0.3530574168937348</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.949191127623027</v>
+        <v>-3.321978175384456</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-15.44845839553095</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.61345457912903</v>
+        <v>-12.17995533973664</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08906422239317036</v>
+        <v>0.2407385508145669</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.153771451827838</v>
+        <v>-3.479962993775565</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-15.610051358659</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.01446863181722</v>
+        <v>-11.65385424234472</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.06147107568099597</v>
+        <v>0.03988953291964725</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.563416515442605</v>
+        <v>-3.932537718408351</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-15.77474451835151</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.5833129146335</v>
+        <v>-11.22870789216535</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.07923733063721825</v>
+        <v>0.06853549153734388</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.685816454709903</v>
+        <v>-4.029407667134282</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-15.9323531041131</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.80640257170263</v>
+        <v>-10.4624415914448</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1228477914030078</v>
+        <v>0.01365255802482821</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.111525773911467</v>
+        <v>-4.420422383805273</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-16.07153813272464</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.55018620509005</v>
+        <v>-10.19073703057046</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.285860054085339</v>
+        <v>-0.1587992550063876</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.118870555805676</v>
+        <v>-4.446148758889265</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-16.19631179995563</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.929899081054753</v>
+        <v>-9.6021201871093</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2368948414572836</v>
+        <v>-0.09623113972577868</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.43057210186149</v>
+        <v>-4.73935088102972</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-16.29475704463064</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.616482443326673</v>
+        <v>-9.251167917133991</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3387136806573872</v>
+        <v>-0.2068741910412057</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.303354195148438</v>
+        <v>-4.635686027128934</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-16.36237046979124</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.047988469333244</v>
+        <v>-8.703935842955525</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.365487439968717</v>
+        <v>-0.2320506894058449</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.674167488534644</v>
+        <v>-5.017077901211255</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-16.40219350142237</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.573156829869523</v>
+        <v>-8.22035854519353</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3150427971195465</v>
+        <v>-0.190849212362933</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.703337139266011</v>
+        <v>-5.025627174966902</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.40072555523288</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.121708043281124</v>
+        <v>-7.77237921885819</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3278863462072797</v>
+        <v>-0.2086678365305221</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.685636345823997</v>
+        <v>-5.008908304238018</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.35796303854385</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.777642324600563</v>
+        <v>-7.41073053746119</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.477374260054108</v>
+        <v>-0.367019239401199</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.858258358792155</v>
+        <v>-5.205017908504233</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-16.27415144777272</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.423364609703456</v>
+        <v>-7.057539483699946</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3995143350543631</v>
+        <v>-0.3030633400193671</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.098345008303728</v>
+        <v>-5.469456241301416</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-16.1376687037825</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.167711212113072</v>
+        <v>-6.809924760054382</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5223594126182788</v>
+        <v>-0.4212999269829952</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.045478289428837</v>
+        <v>-5.437340822430662</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.9578442732407</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.001622258262935</v>
+        <v>-6.64289316039964</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6191900844356848</v>
+        <v>-0.5059678494604377</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.128719150896532</v>
+        <v>-5.535258155383931</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.73902581215642</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.718854701487335</v>
+        <v>-6.367509662426774</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5696357181797516</v>
+        <v>-0.4528785614372385</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.08569784375862</v>
+        <v>-5.512595379164903</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.4773719057196</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.612492833201152</v>
+        <v>-6.241771185934837</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8690043149586598</v>
+        <v>-0.7395083475511474</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.10063616130103</v>
+        <v>-5.560827422833822</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.19021464811875</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.427118917265153</v>
+        <v>-6.044195243750349</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7673818603011822</v>
+        <v>-0.6605879460212226</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.926914394894166</v>
+        <v>-5.40357577340185</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.88470300649232</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.353684190625911</v>
+        <v>-5.945701849472043</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8387218184857475</v>
+        <v>-0.7318886272972628</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.828604292855646</v>
+        <v>-5.331201523292789</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.5636282498836</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.372013414604328</v>
+        <v>-5.946382649219813</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9737820146009936</v>
+        <v>-0.8551526585521136</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.62786001338346</v>
+        <v>-5.174696135122796</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.24748705941843</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.429986131587491</v>
+        <v>-5.998660214466826</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.030393132088617</v>
+        <v>-0.9008447954697376</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.459296614296236</v>
+        <v>-4.991888310543774</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.94031139516492</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.646886312766367</v>
+        <v>-6.219317886561277</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9099832228532625</v>
+        <v>-0.7842709309670087</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.30526567136333</v>
+        <v>-4.856042576258025</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.64783729259381</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.816837495954813</v>
+        <v>-6.401942418900513</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.261105692765514</v>
+        <v>-1.114406439423973</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.135681072654451</v>
+        <v>-4.688500376792456</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.38448858746158</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.283538815353822</v>
+        <v>-6.883843901898767</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.199074361901416</v>
+        <v>-1.044035311649696</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.896563253553166</v>
+        <v>-4.486185020979264</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.14737511735332</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.703487521305028</v>
+        <v>-7.332412381861985</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.270021551000729</v>
+        <v>-1.104417012355736</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.837189660165939</v>
+        <v>-4.414570124435022</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.94325676994615</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.305851282750002</v>
+        <v>-7.929971268164047</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.315045980473425</v>
+        <v>-1.166998219939187</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.484024791010379</v>
+        <v>-4.039501832625253</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.77942874095619</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.715797469330129</v>
+        <v>-8.34444739152741</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.341387693790978</v>
+        <v>-1.159797453376238</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.34819214902747</v>
+        <v>-3.884698443824684</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.64604324749659</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.160608458377771</v>
+        <v>-8.802691083290664</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.447906669711261</v>
+        <v>-1.306706183563246</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.995760448831046</v>
+        <v>-3.526466853469375</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.54974204267563</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.0403588401304</v>
+        <v>-9.704790025994116</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.437825596523132</v>
+        <v>-1.26949785888706</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.009468089906334</v>
+        <v>-3.523154500850419</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.48987368282322</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.78062382740727</v>
+        <v>-10.47876769308844</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.524064595341582</v>
+        <v>-1.35201864369846</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.80137902853994</v>
+        <v>-3.32830175765701</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.45607729826214</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.56130475355656</v>
+        <v>-11.28605217861211</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.660342375621109</v>
+        <v>-1.483308256595289</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.478090794469197</v>
+        <v>-2.983895639102564</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.45737580691221</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.75511329587651</v>
+        <v>-12.47424412301296</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.724677951785351</v>
+        <v>-1.551021646892696</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.330606002957154</v>
+        <v>-2.843912737118829</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.49246066746824</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.6255681426115</v>
+        <v>-13.36420650098213</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.783135083973657</v>
+        <v>-1.625176450188232</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.996974849641448</v>
+        <v>-2.515125735854562</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.55576339587276</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.73152733286347</v>
+        <v>-14.50806790796089</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.968823215177858</v>
+        <v>-1.817633301961606</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.745484804354732</v>
+        <v>-2.257469215929393</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.65600743804435</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.77974946758343</v>
+        <v>-15.57854695751178</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.999092619347929</v>
+        <v>-1.855299857237251</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.312509257076009</v>
+        <v>-1.835399556917828</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.78438084246</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.1703615062202</v>
+        <v>-16.97870328492018</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.93144469056473</v>
+        <v>-1.824690053193296</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.046944986234438</v>
+        <v>-1.541411896606869</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.93117504840044</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78819046067514</v>
+        <v>-18.6210017533863</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.154956484678678</v>
+        <v>-2.048686262512387</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.866703253012395</v>
+        <v>-1.35945507171256</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.08928107409877</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.36189835455345</v>
+        <v>-20.20759247326087</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.361343546675648</v>
+        <v>-2.271072118581946</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.583254896489026</v>
+        <v>-1.075325915441421</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.23255338746705</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.03881287173309</v>
+        <v>-21.95633136383022</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.509063999638843</v>
+        <v>-2.45480949666273</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.719454122951502</v>
+        <v>-1.218568800832746</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.33975386058872</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67628028045062</v>
+        <v>-23.62787803684475</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.625271279662003</v>
+        <v>-2.552059122171071</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.518618197359424</v>
+        <v>-1.018662428742431</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.39000647478354</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77848516314089</v>
+        <v>-25.72851184319402</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.725008442710272</v>
+        <v>-2.689881794185921</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.489029592937123</v>
+        <v>-0.9965233446370718</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.3528764203521</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.98811239064752</v>
+        <v>-27.9569788944899</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.568804177505639</v>
+        <v>-2.548013600592978</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.576604006645429</v>
+        <v>-1.11028236402883</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-13.22011249453657</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24262003229559</v>
+        <v>-30.22972411399649</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.001871370904253</v>
+        <v>-3.009674383397922</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.937768272837284</v>
+        <v>-1.460737126496153</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.98856013138876</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47466128226726</v>
+        <v>-32.44752093847636</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.002591447560548</v>
+        <v>-3.048623984352057</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.201119944498604</v>
+        <v>-1.710800110773121</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.66122264258645</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.71989957350339</v>
+        <v>-34.67666878952001</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.268548487487372</v>
+        <v>-3.35765470062816</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.372419634879748</v>
+        <v>-1.903819931568688</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.26083687564074</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21889287841785</v>
+        <v>-37.18802122831706</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.521766716749196</v>
+        <v>-3.606932146734624</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.829406465570196</v>
+        <v>-2.333888987616548</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.81757501537524</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.65910174357296</v>
+        <v>-39.67965665903447</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.461489754465889</v>
+        <v>-3.533510512398224</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.309671410713233</v>
+        <v>-2.802763629287284</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.34716546799102</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.23075732925901</v>
+        <v>-42.24637644654918</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.639479611599155</v>
+        <v>-3.712652492181562</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.5924913367002</v>
+        <v>-3.112095468528745</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.90274373041318</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53162481526963</v>
+        <v>-44.5376079976683</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.842056813469182</v>
+        <v>-3.928138704653531</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.097474549608417</v>
+        <v>-3.671189169081815</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.49645575906677</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85189509409169</v>
+        <v>-46.85515507749928</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.967585813115652</v>
+        <v>-4.067192053135503</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.405470973960022</v>
+        <v>-3.969143797153817</v>
       </c>
     </row>
   </sheetData>
